--- a/input.xlsx
+++ b/input.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\YPutrin\PycharmProjects\jira_automation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\YPutrin\Documents\Personal\python_projects\jira_automation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19597BBA-1F45-4927-B761-270B383D48B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F934E4DE-E33A-45D9-A03C-C52511617AF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="5748" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="79">
   <si>
     <t>Main Ticket Ids</t>
   </si>
@@ -262,9 +262,6 @@
   </si>
   <si>
     <t>State Mapping (If Empty, use default mapping)</t>
-  </si>
-  <si>
-    <t>test</t>
   </si>
 </sst>
 </file>
@@ -641,7 +638,7 @@
   <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6:E19"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -747,9 +744,7 @@
       <c r="D7" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="3" t="s">
-        <v>79</v>
-      </c>
+      <c r="E7" s="3"/>
     </row>
     <row r="8" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
@@ -761,9 +756,7 @@
       <c r="D8" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>79</v>
-      </c>
+      <c r="E8" s="3"/>
     </row>
     <row r="9" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
@@ -775,9 +768,7 @@
       <c r="D9" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>79</v>
-      </c>
+      <c r="E9" s="3"/>
     </row>
     <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
@@ -789,9 +780,7 @@
       <c r="D10" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>79</v>
-      </c>
+      <c r="E10" s="3"/>
     </row>
     <row r="11" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
@@ -803,9 +792,7 @@
       <c r="D11" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E11" s="3" t="s">
-        <v>79</v>
-      </c>
+      <c r="E11" s="3"/>
     </row>
     <row r="12" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
@@ -817,9 +804,7 @@
       <c r="D12" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E12" s="3" t="s">
-        <v>79</v>
-      </c>
+      <c r="E12" s="3"/>
     </row>
     <row r="13" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
@@ -831,9 +816,7 @@
       <c r="D13" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="3" t="s">
-        <v>79</v>
-      </c>
+      <c r="E13" s="3"/>
     </row>
     <row r="14" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
@@ -845,9 +828,7 @@
       <c r="D14" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>79</v>
-      </c>
+      <c r="E14" s="3"/>
     </row>
     <row r="15" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
@@ -859,9 +840,7 @@
       <c r="D15" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E15" s="3" t="s">
-        <v>79</v>
-      </c>
+      <c r="E15" s="3"/>
     </row>
     <row r="16" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
@@ -873,9 +852,7 @@
       <c r="D16" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E16" s="3" t="s">
-        <v>79</v>
-      </c>
+      <c r="E16" s="3"/>
     </row>
     <row r="17" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
@@ -887,9 +864,7 @@
       <c r="D17" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E17" s="3" t="s">
-        <v>79</v>
-      </c>
+      <c r="E17" s="3"/>
     </row>
     <row r="18" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
@@ -901,9 +876,7 @@
       <c r="D18" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E18" s="3" t="s">
-        <v>79</v>
-      </c>
+      <c r="E18" s="3"/>
     </row>
     <row r="19" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
@@ -915,9 +888,7 @@
       <c r="D19" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E19" s="3" t="s">
-        <v>79</v>
-      </c>
+      <c r="E19" s="3"/>
     </row>
     <row r="20" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
@@ -1086,6 +1057,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D3E1570CDAC4AF47A119B1CC171B8573" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="560323ade5d0834cef39adc27790c562">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2a0b2376-1cb2-40d2-b11a-5598544f98b1" xmlns:ns3="3ebabb90-7a8a-44bf-83a7-a3521b28675e" xmlns:ns4="168e0357-5b39-4600-91c2-bfff6e896513" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ad55ff5f0f02ec76a2f314e6eacc36f9" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="2a0b2376-1cb2-40d2-b11a-5598544f98b1"/>
@@ -1327,15 +1307,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -1348,6 +1319,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7FF66A4B-B6E9-4587-8EB6-E994D8F37D6F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A44B6BD1-20E3-4349-8650-D53807D7A427}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1363,14 +1342,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7FF66A4B-B6E9-4587-8EB6-E994D8F37D6F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
